--- a/音响相关/Ak4490EQAK4490REQ代换差别.xlsx
+++ b/音响相关/Ak4490EQAK4490REQ代换差别.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\学习资料\电子技术\音频ＩＣ\ak4490\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-code\2022-code\Arduino\音响相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362578BF-531A-451B-AF4B-7569EA8777F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AD1F6C-51D0-4941-91C8-09AA715A7996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{C1BCD6C4-4D5F-44CE-9DBA-F6223BC99F3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1BCD6C4-4D5F-44CE-9DBA-F6223BC99F3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="硬件接法" sheetId="1" r:id="rId1"/>
+    <sheet name="软件" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>脚位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,6 +323,18 @@
   </si>
   <si>
     <t>5Ｖ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK4490</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak4490R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +531,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,8 +552,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,17 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,6 +586,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B05F4BE-5FCB-43A7-BD1B-2A6D06905F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="9133333" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>132562</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03B9EC5-F278-4282-A2CF-040E05AE69B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="361950"/>
+          <a:ext cx="6304762" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151267</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE481363-A22C-44A9-B351-6E336AA48B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="723900"/>
+          <a:ext cx="9066667" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>189705</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFF0F5E-F6DB-4EF8-8A8F-DD4CCA394C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="723900"/>
+          <a:ext cx="6361905" cy="161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142086</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AF3C06-55DC-4074-8423-006BD77668B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1085850"/>
+          <a:ext cx="6314286" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198886</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FA3DBC-BB4E-4242-8C1F-D4BB9F306BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1085850"/>
+          <a:ext cx="9114286" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>170657</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E47CCF-2951-407C-9B96-5E0BB4F8430C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1628775"/>
+          <a:ext cx="6342857" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198886</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4138B7-C984-42BF-A83C-A9E54748E844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1628775"/>
+          <a:ext cx="9114286" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,10 +1245,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,24 +1261,24 @@
     <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,9 +1295,9 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -934,12 +1316,12 @@
       <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -948,34 +1330,34 @@
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -984,7 +1366,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -993,29 +1375,29 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1024,7 +1406,7 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1033,45 +1415,45 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -1081,7 +1463,7 @@
       <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1093,8 +1475,11 @@
       <c r="G11" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1111,11 +1496,11 @@
       <c r="F12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1132,11 +1517,11 @@
       <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -1159,7 +1544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1182,17 +1567,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="24" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1201,22 +1586,22 @@
       <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
@@ -1260,7 +1645,7 @@
       <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1309,7 +1694,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1330,11 +1715,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B1:C1"/>
@@ -1347,9 +1727,65 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB36C7A3-E7E3-4997-85A6-F266E1AA1314}">
+  <dimension ref="B1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="P1:X1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/音响相关/Ak4490EQAK4490REQ代换差别.xlsx
+++ b/音响相关/Ak4490EQAK4490REQ代换差别.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-code\2022-code\Arduino\音响相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AD1F6C-51D0-4941-91C8-09AA715A7996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3277E5C-F851-4158-9502-8C32780C29EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1BCD6C4-4D5F-44CE-9DBA-F6223BC99F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件接法" sheetId="1" r:id="rId1"/>
     <sheet name="软件" sheetId="2" r:id="rId2"/>
+    <sheet name="寄存器" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2D55DAFF-C575-4A34-AECF-5DE24C1741D2}</author>
+    <author>tc={03EE9946-7DBF-4EAA-B33A-343ADE37F7F9}</author>
+    <author>tc={004A65FD-0FDA-442C-A034-EC57B5E18F99}</author>
+    <author>tc={5B579FCE-91DA-4F3B-8E5C-BDC33D58C690}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2D55DAFF-C575-4A34-AECF-5DE24C1741D2}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    主时钟自动检测功能，1为开</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{03EE9946-7DBF-4EAA-B33A-343ADE37F7F9}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    默认0，禁止外部数字滤波器</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{004A65FD-0FDA-442C-A034-EC57B5E18F99}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    默认0为768Khz,1为384Khz.</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="3" shapeId="0" xr:uid="{5B579FCE-91DA-4F3B-8E5C-BDC33D58C690}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    默认010为24位MSBjustfied</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
   <si>
     <t>脚位</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,6 +381,263 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01h</t>
+  </si>
+  <si>
+    <t>0x02h</t>
+  </si>
+  <si>
+    <t>0x03h</t>
+  </si>
+  <si>
+    <t>0x04h</t>
+  </si>
+  <si>
+    <t>0x05h</t>
+  </si>
+  <si>
+    <t>0x06h</t>
+  </si>
+  <si>
+    <t>0x07h</t>
+  </si>
+  <si>
+    <t>0x08h</t>
+  </si>
+  <si>
+    <t>0x09h</t>
+  </si>
+  <si>
+    <t>ACKS</t>
+  </si>
+  <si>
+    <t>EXDF</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>DIF2</t>
+  </si>
+  <si>
+    <t>DIF1</t>
+  </si>
+  <si>
+    <t>DIF0</t>
+  </si>
+  <si>
+    <t>RSTN</t>
+  </si>
+  <si>
+    <t>DZFE</t>
+  </si>
+  <si>
+    <t>DZFM</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DFS1</t>
+  </si>
+  <si>
+    <t>DFS0</t>
+  </si>
+  <si>
+    <t>DEM1</t>
+  </si>
+  <si>
+    <t>DEM0</t>
+  </si>
+  <si>
+    <t>SMUTE</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DCKS</t>
+  </si>
+  <si>
+    <t>DCKB</t>
+  </si>
+  <si>
+    <t>MONO</t>
+  </si>
+  <si>
+    <t>DZFB</t>
+  </si>
+  <si>
+    <t>SELLR</t>
+  </si>
+  <si>
+    <t>SLOW</t>
+  </si>
+  <si>
+    <t>ATT7</t>
+  </si>
+  <si>
+    <t>ATT6</t>
+  </si>
+  <si>
+    <t>ATT5</t>
+  </si>
+  <si>
+    <t>ATT4</t>
+  </si>
+  <si>
+    <t>ATT3</t>
+  </si>
+  <si>
+    <t>ATT2</t>
+  </si>
+  <si>
+    <t>ATT1</t>
+  </si>
+  <si>
+    <t>ATT0</t>
+  </si>
+  <si>
+    <t>INVL</t>
+  </si>
+  <si>
+    <t>INVR</t>
+  </si>
+  <si>
+    <t>DFS2</t>
+  </si>
+  <si>
+    <t>SSLOW</t>
+  </si>
+  <si>
+    <t>DDM</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>DMR</t>
+  </si>
+  <si>
+    <t>DMC</t>
+  </si>
+  <si>
+    <t>DMRE</t>
+  </si>
+  <si>
+    <t>DSDD</t>
+  </si>
+  <si>
+    <t>DSDSEL0</t>
+  </si>
+  <si>
+    <t>SYNCE</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SC0</t>
+  </si>
+  <si>
+    <t>DSDF</t>
+  </si>
+  <si>
+    <t>DSDSEL1</t>
+  </si>
+  <si>
+    <t>正常值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIF1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIF0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSTN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZFM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCKB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZFB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87、5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +688,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -482,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +878,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,6 +1261,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="旺旺" id="{98B155E2-B169-494E-BD4A-C69D9A955AAA}" userId="旺旺" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1240,6 +1562,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2022-06-01T09:13:38.32" personId="{98B155E2-B169-494E-BD4A-C69D9A955AAA}" id="{2D55DAFF-C575-4A34-AECF-5DE24C1741D2}">
+    <text>主时钟自动检测功能，1为开</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2022-06-01T09:12:45.25" personId="{98B155E2-B169-494E-BD4A-C69D9A955AAA}" id="{03EE9946-7DBF-4EAA-B33A-343ADE37F7F9}">
+    <text>默认0，禁止外部数字滤波器</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2022-06-01T09:09:42.01" personId="{98B155E2-B169-494E-BD4A-C69D9A955AAA}" id="{004A65FD-0FDA-442C-A034-EC57B5E18F99}">
+    <text>默认0为768Khz,1为384Khz.</text>
+  </threadedComment>
+  <threadedComment ref="G3" dT="2022-06-01T09:09:33.69" personId="{98B155E2-B169-494E-BD4A-C69D9A955AAA}" id="{5B579FCE-91DA-4F3B-8E5C-BDC33D58C690}">
+    <text>默认010为24位MSBjustfied</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20653AE-3B5E-414E-BD22-2F159640C759}">
   <sheetPr>
@@ -1248,7 +1587,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1715,6 +2054,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B1:C1"/>
@@ -1727,11 +2071,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1744,7 +2083,7 @@
   <dimension ref="B1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1788,4 +2127,754 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B794F4-B555-4597-A7A6-BB924CD5800B}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1</v>
+      </c>
+      <c r="I3" s="29">
+        <v>1</v>
+      </c>
+      <c r="J3" s="29">
+        <v>1</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>149</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>